--- a/Flight-MBT/Default.xlsx
+++ b/Flight-MBT/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,24 @@
     <sheet name="600-Logout" sheetId="5" r:id="rId5"/>
     <sheet name="400-DeleteOrderNum" sheetId="6" r:id="rId6"/>
     <sheet name="500-TrashcanOrder" sheetId="7" r:id="rId7"/>
+    <sheet name="350-ChangeOrder" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+  <si>
+    <t>Order 92 updatedOutput Text_out</t>
+  </si>
+  <si>
+    <t>Order 92 updatedOutput Text_out1</t>
+  </si>
+  <si>
+    <t>Order 92 updated</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -159,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,13 +182,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -472,6 +517,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="2" width="9.41796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -489,7 +569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -499,7 +579,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customFormat="1"/>
@@ -508,7 +588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -527,7 +607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -546,7 +626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -565,7 +645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -584,7 +664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -592,12 +672,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
     <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
+    <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Flight-MBT/Default.xlsx
+++ b/Flight-MBT/Default.xlsx
@@ -10,28 +10,14 @@
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="100-Login" sheetId="2" r:id="rId2"/>
     <sheet name="200-BookFlight" sheetId="3" r:id="rId3"/>
-    <sheet name="300-SearchOrderNum" sheetId="4" r:id="rId4"/>
+    <sheet name="500-SearchOrderNum" sheetId="4" r:id="rId4"/>
     <sheet name="600-Logout" sheetId="5" r:id="rId5"/>
     <sheet name="400-DeleteOrderNum" sheetId="6" r:id="rId6"/>
-    <sheet name="500-TrashcanOrder" sheetId="7" r:id="rId7"/>
-    <sheet name="350-ChangeOrder" sheetId="8" r:id="rId8"/>
+    <sheet name="700-TrashcanOrder" sheetId="7" r:id="rId7"/>
+    <sheet name="300-ChangeOrder" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
-  <si>
-    <t>Order 92 updatedOutput Text_out</t>
-  </si>
-  <si>
-    <t>Order 92 updatedOutput Text_out1</t>
-  </si>
-  <si>
-    <t>Order 92 updated</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -174,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -182,43 +168,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -517,34 +473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="2" width="9.41796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.95" customFormat="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
+      <selection activeCell="A1" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -672,12 +612,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Flight-MBT/Default.xlsx
+++ b/Flight-MBT/Default.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="100-Login" sheetId="2" r:id="rId2"/>
     <sheet name="200-BookFlight" sheetId="3" r:id="rId3"/>
-    <sheet name="500-SearchOrderNum" sheetId="4" r:id="rId4"/>
+    <sheet name="500-SearchOrder" sheetId="4" r:id="rId4"/>
     <sheet name="600-Logout" sheetId="5" r:id="rId5"/>
     <sheet name="400-DeleteOrderNum" sheetId="6" r:id="rId6"/>
     <sheet name="700-TrashcanOrder" sheetId="7" r:id="rId7"/>
@@ -476,7 +476,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -484,7 +484,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Flight-MBT/Default.xlsx
+++ b/Flight-MBT/Default.xlsx
@@ -11,9 +11,9 @@
     <sheet name="100-Login" sheetId="2" r:id="rId2"/>
     <sheet name="200-BookFlight" sheetId="3" r:id="rId3"/>
     <sheet name="500-SearchOrder" sheetId="4" r:id="rId4"/>
-    <sheet name="600-Logout" sheetId="5" r:id="rId5"/>
+    <sheet name="700-Logout" sheetId="5" r:id="rId5"/>
     <sheet name="400-DeleteOrderNum" sheetId="6" r:id="rId6"/>
-    <sheet name="700-TrashcanOrder" sheetId="7" r:id="rId7"/>
+    <sheet name="600-TrashcanOrder" sheetId="7" r:id="rId7"/>
     <sheet name="300-ChangeOrder" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="40001"/>
